--- a/classification/droptc/message/drone-sbert/freeze/24677315/prediction.xlsx
+++ b/classification/droptc/message/drone-sbert/freeze/24677315/prediction.xlsx
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1612,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2584,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2854,12 +2854,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3232,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
